--- a/application/views/rpt/ru/StockMovements.xlsx
+++ b/application/views/rpt/ru/StockMovements.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Код</t>
   </si>
@@ -52,9 +52,6 @@
     <t>{$v-&gt;table-&gt;rows[]-&gt;buy}</t>
   </si>
   <si>
-    <t>{$v-&gt;table-&gt;rows[]-&gt;label}</t>
-  </si>
-  <si>
     <t>{$v-&gt;table-&gt;rows[]-&gt;doc}</t>
   </si>
   <si>
@@ -65,6 +62,15 @@
   </si>
   <si>
     <t>Рух товару на {$v-&gt;date}</t>
+  </si>
+  <si>
+    <t>Підприємство</t>
+  </si>
+  <si>
+    <t>{$v-&gt;table-&gt;rows[]-&gt;alabel}</t>
+  </si>
+  <si>
+    <t>{$v-&gt;table-&gt;rows[]-&gt;plabel}</t>
   </si>
 </sst>
 </file>
@@ -331,29 +337,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -673,27 +679,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="27.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="45.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" style="8" customWidth="1"/>
-    <col min="7" max="7" width="9" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="27.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="45.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" style="8" customWidth="1"/>
+    <col min="8" max="8" width="9" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="24"/>
@@ -701,39 +707,43 @@
       <c r="E1" s="24"/>
       <c r="F1" s="24"/>
       <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
     </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D2" s="3"/>
+    <row r="2" spans="1:8" s="2" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E2" s="3"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:7" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="20" t="s">
+    <row r="3" spans="1:8" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="C3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="D3" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="E3" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="H3" s="21" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>13</v>
@@ -741,58 +751,64 @@
       <c r="C4" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="G4" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="H4" s="17" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14"/>
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
-      <c r="D5" s="9"/>
+      <c r="D5" s="15"/>
       <c r="E5" s="9"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="11"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="11"/>
     </row>
-    <row r="6" spans="1:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
+    <row r="6" spans="1:8" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
     </row>
-    <row r="7" spans="1:7" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="16" t="s">
+    <row r="7" spans="1:8" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
     </row>
-    <row r="8" spans="1:7" s="2" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="16" t="s">
+    <row r="8" spans="1:8" s="2" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F4">
+  <conditionalFormatting sqref="G4">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>
